--- a/Chessboard Layout.xlsx
+++ b/Chessboard Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick S\Documents\ITB\STI\Semester 3\AlStrukDat\TubesAlstrukdatSTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4704E4-50E8-48F6-AF58-2872085F8251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CFF672-7D72-4E3C-9A0E-D0E608BA49B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1FCF950E-9D29-46DF-8F1D-5034CB704C42}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>a</t>
   </si>
@@ -59,6 +59,15 @@
   <si>
     <t>off board = true</t>
   </si>
+  <si>
+    <t>file-&gt;</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
 </sst>
 </file>
 
@@ -85,7 +94,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +116,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -153,6 +174,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918DCA21-E058-4377-BBF0-D34CF41C556E}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -482,10 +509,10 @@
     <col min="27" max="16384" width="7.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="3">
         <v>0</v>
       </c>
@@ -517,7 +544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3">
         <v>10</v>
       </c>
@@ -548,35 +575,39 @@
       <c r="L3" s="3">
         <v>19</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="O3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>20</v>
       </c>
@@ -607,7 +638,7 @@
       <c r="L4" s="3">
         <v>29</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="7">
         <v>1</v>
       </c>
       <c r="Q4" s="4">
@@ -634,8 +665,32 @@
       <c r="X4" s="5">
         <v>28</v>
       </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3">
         <v>30</v>
       </c>
@@ -666,7 +721,7 @@
       <c r="L5" s="3">
         <v>39</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="7">
         <v>2</v>
       </c>
       <c r="Q5" s="5">
@@ -693,8 +748,32 @@
       <c r="X5" s="4">
         <v>38</v>
       </c>
+      <c r="AC5" s="5">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>11</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>12</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>13</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>14</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3">
         <v>40</v>
       </c>
@@ -725,7 +804,7 @@
       <c r="L6" s="3">
         <v>49</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="7">
         <v>3</v>
       </c>
       <c r="Q6" s="4">
@@ -752,8 +831,32 @@
       <c r="X6" s="5">
         <v>48</v>
       </c>
+      <c r="AC6" s="4">
+        <v>16</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>17</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>18</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>19</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>20</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>21</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>22</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>50</v>
       </c>
@@ -784,7 +887,7 @@
       <c r="L7" s="3">
         <v>59</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="7">
         <v>4</v>
       </c>
       <c r="Q7" s="5">
@@ -811,8 +914,32 @@
       <c r="X7" s="4">
         <v>58</v>
       </c>
+      <c r="AC7" s="5">
+        <v>24</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>25</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>26</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>27</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>28</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>29</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>30</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>60</v>
       </c>
@@ -843,7 +970,7 @@
       <c r="L8" s="3">
         <v>69</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="7">
         <v>5</v>
       </c>
       <c r="Q8" s="4">
@@ -870,8 +997,32 @@
       <c r="X8" s="5">
         <v>68</v>
       </c>
+      <c r="AC8" s="4">
+        <v>32</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>34</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>35</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>36</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>37</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>38</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>70</v>
       </c>
@@ -902,7 +1053,7 @@
       <c r="L9" s="3">
         <v>79</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="7">
         <v>6</v>
       </c>
       <c r="Q9" s="5">
@@ -929,8 +1080,32 @@
       <c r="X9" s="4">
         <v>78</v>
       </c>
+      <c r="AC9" s="5">
+        <v>40</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>41</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>42</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>44</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>46</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>47</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>80</v>
       </c>
@@ -961,7 +1136,7 @@
       <c r="L10" s="3">
         <v>89</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="7">
         <v>7</v>
       </c>
       <c r="Q10" s="4">
@@ -988,8 +1163,32 @@
       <c r="X10" s="5">
         <v>88</v>
       </c>
+      <c r="AC10" s="4">
+        <v>48</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>49</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>50</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>51</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>52</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>53</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>54</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>55</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>90</v>
       </c>
@@ -1020,7 +1219,7 @@
       <c r="L11" s="3">
         <v>99</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="7">
         <v>8</v>
       </c>
       <c r="Q11" s="5">
@@ -1047,8 +1246,32 @@
       <c r="X11" s="4">
         <v>98</v>
       </c>
+      <c r="AC11" s="5">
+        <v>56</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>57</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>58</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>59</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>60</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>61</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>62</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>63</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>100</v>
       </c>
@@ -1079,8 +1302,11 @@
       <c r="L12" s="3">
         <v>109</v>
       </c>
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>110</v>
       </c>
@@ -1110,6 +1336,9 @@
       </c>
       <c r="L13" s="3">
         <v>119</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
